--- a/DataSet/HeatPrediction.xlsx
+++ b/DataSet/HeatPrediction.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="13245"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="13245" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>播放平台数</t>
   </si>
@@ -555,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1271,4 +1272,25 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>